--- a/outcome/appendix/data/Epidemic/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/Epidemic/Acute hemorrhagic conjunctivitis.xlsx
@@ -462,16 +462,16 @@
         <v>1968.51288259218</v>
       </c>
       <c r="C3" t="n">
-        <v>-58887.080421669</v>
+        <v>-61294.5057158628</v>
       </c>
       <c r="D3" t="n">
-        <v>-91102.0855552337</v>
+        <v>-94783.9248186313</v>
       </c>
       <c r="E3" t="n">
-        <v>62824.1061868533</v>
+        <v>65231.5314810472</v>
       </c>
       <c r="F3" t="n">
-        <v>95039.1113204181</v>
+        <v>98720.9505838156</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>2789.43576433971</v>
       </c>
       <c r="C4" t="n">
-        <v>-3903277.1367196</v>
+        <v>-3915622.52170525</v>
       </c>
       <c r="D4" t="n">
-        <v>-5971023.87703122</v>
+        <v>-5989904.51406348</v>
       </c>
       <c r="E4" t="n">
-        <v>3908856.00824828</v>
+        <v>3921201.39323393</v>
       </c>
       <c r="F4" t="n">
-        <v>5976602.7485599</v>
+        <v>5995483.38559216</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>2626.63062814211</v>
       </c>
       <c r="C5" t="n">
-        <v>-155819243.589459</v>
+        <v>-134546563.528993</v>
       </c>
       <c r="D5" t="n">
-        <v>-238306359.013084</v>
+        <v>-205772602.358947</v>
       </c>
       <c r="E5" t="n">
-        <v>155824496.850716</v>
+        <v>134551816.79025</v>
       </c>
       <c r="F5" t="n">
-        <v>238311612.274341</v>
+        <v>205777855.620203</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>2447.64011214438</v>
       </c>
       <c r="C6" t="n">
-        <v>-6124173174.57915</v>
+        <v>-4177795104.51121</v>
       </c>
       <c r="D6" t="n">
-        <v>-9366115917.98893</v>
+        <v>-6389387536.39578</v>
       </c>
       <c r="E6" t="n">
-        <v>6124178069.85938</v>
+        <v>4177799999.79144</v>
       </c>
       <c r="F6" t="n">
-        <v>9366120813.26915</v>
+        <v>6389392431.67601</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>2071.71196126065</v>
       </c>
       <c r="C7" t="n">
-        <v>-195794606652.37</v>
+        <v>-122957527658.219</v>
       </c>
       <c r="D7" t="n">
-        <v>-299442011643.308</v>
+        <v>-188047312119.868</v>
       </c>
       <c r="E7" t="n">
-        <v>195794610795.794</v>
+        <v>122957531801.643</v>
       </c>
       <c r="F7" t="n">
-        <v>299442015786.732</v>
+        <v>188047316263.292</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1569.64426214283</v>
       </c>
       <c r="C8" t="n">
-        <v>-5661931701613.39</v>
+        <v>-3106473160113.81</v>
       </c>
       <c r="D8" t="n">
-        <v>-8659177295325.53</v>
+        <v>-4750940717114.95</v>
       </c>
       <c r="E8" t="n">
-        <v>5661931704752.68</v>
+        <v>3106473163253.1</v>
       </c>
       <c r="F8" t="n">
-        <v>8659177298464.82</v>
+        <v>4750940720254.24</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1192.03630764053</v>
       </c>
       <c r="C9" t="n">
-        <v>-177998826652521</v>
+        <v>-62063593498907.4</v>
       </c>
       <c r="D9" t="n">
-        <v>-272225713665985</v>
+        <v>-94918075308276</v>
       </c>
       <c r="E9" t="n">
-        <v>177998826654905</v>
+        <v>62063593501291.5</v>
       </c>
       <c r="F9" t="n">
-        <v>272225713668369</v>
+        <v>94918075310660.1</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>5267.21427808336</v>
       </c>
       <c r="C10" t="n">
-        <v>-31097130823079840</v>
+        <v>-6609107468206843</v>
       </c>
       <c r="D10" t="n">
-        <v>-47558957496860312</v>
+        <v>-10107757624359804</v>
       </c>
       <c r="E10" t="n">
-        <v>31097130823090376</v>
+        <v>6609107468217377</v>
       </c>
       <c r="F10" t="n">
-        <v>47558957496870840</v>
+        <v>10107757624370340</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>4002.39761874766</v>
       </c>
       <c r="C11" t="n">
-        <v>-921695862770340864</v>
+        <v>-98731979517634976</v>
       </c>
       <c r="D11" t="n">
-        <v>-1409612179718860288</v>
+        <v>-150997532350311744</v>
       </c>
       <c r="E11" t="n">
-        <v>921695862770348800</v>
+        <v>98731979517642976</v>
       </c>
       <c r="F11" t="n">
-        <v>1409612179718868480</v>
+        <v>150997532350319744</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>4082.75052707486</v>
       </c>
       <c r="C12" t="n">
-        <v>-42547499870409162752</v>
+        <v>-2037720854401925120</v>
       </c>
       <c r="D12" t="n">
-        <v>-65070785772702769152</v>
+        <v>-3116425115111739904</v>
       </c>
       <c r="E12" t="n">
-        <v>42547499870409162752</v>
+        <v>2037720854401933312</v>
       </c>
       <c r="F12" t="n">
-        <v>65070785772702769152</v>
+        <v>3116425115111748096</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>3267.80158302128</v>
       </c>
       <c r="C13" t="n">
-        <v>-1355801300132445028352</v>
+        <v>-24313035400925696000</v>
       </c>
       <c r="D13" t="n">
-        <v>-2073519154356408811520</v>
+        <v>-37183578891272716288</v>
       </c>
       <c r="E13" t="n">
-        <v>1355801300132445028352</v>
+        <v>24313035400925704192</v>
       </c>
       <c r="F13" t="n">
-        <v>2073519154356408811520</v>
+        <v>37183578891272716288</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>2559.59852303117</v>
       </c>
       <c r="C14" t="n">
-        <v>-49475578804626524209152</v>
+        <v>-355813210207156436992</v>
       </c>
       <c r="D14" t="n">
-        <v>-75666368157517936066560</v>
+        <v>-544169345954683486208</v>
       </c>
       <c r="E14" t="n">
-        <v>49475578804626524209152</v>
+        <v>355813210207156436992</v>
       </c>
       <c r="F14" t="n">
-        <v>75666368157517936066560</v>
+        <v>544169345954683486208</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>2175.31497160895</v>
       </c>
       <c r="C15" t="n">
-        <v>-1843306325558757538398208</v>
+        <v>-5274122203345191960576</v>
       </c>
       <c r="D15" t="n">
-        <v>-2819093751436171955666944</v>
+        <v>-8066073848715419844608</v>
       </c>
       <c r="E15" t="n">
-        <v>1843306325558757538398208</v>
+        <v>5274122203345191960576</v>
       </c>
       <c r="F15" t="n">
-        <v>2819093751436171955666944</v>
+        <v>8066073848715419844608</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>3081.40730150504</v>
       </c>
       <c r="C16" t="n">
-        <v>-124628078609733515567169536</v>
+        <v>-111972887839288068145152</v>
       </c>
       <c r="D16" t="n">
-        <v>-190602198229692177480417280</v>
+        <v>-171247754136748990398464</v>
       </c>
       <c r="E16" t="n">
-        <v>124628078609733515567169536</v>
+        <v>111972887839288068145152</v>
       </c>
       <c r="F16" t="n">
-        <v>190602198229692177480417280</v>
+        <v>171247754136748990398464</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>2900.562624031</v>
       </c>
       <c r="C17" t="n">
-        <v>-4541145129098048144922378240</v>
+        <v>-1558041716430953328410624</v>
       </c>
       <c r="D17" t="n">
-        <v>-6945082149557805826036465664</v>
+        <v>-2382819180060032012124160</v>
       </c>
       <c r="E17" t="n">
-        <v>4541145129098048144922378240</v>
+        <v>1558041716430953328410624</v>
       </c>
       <c r="F17" t="n">
-        <v>6945082149557805826036465664</v>
+        <v>2382819180060032012124160</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>2701.98492947749</v>
       </c>
       <c r="C18" t="n">
-        <v>-178859551525915287333598396416</v>
+        <v>-23836312057730573206028288</v>
       </c>
       <c r="D18" t="n">
-        <v>-273542078763571821036542361600</v>
+        <v>-36454493454234595285270528</v>
       </c>
       <c r="E18" t="n">
-        <v>178859551525915287333598396416</v>
+        <v>23836312057730573206028288</v>
       </c>
       <c r="F18" t="n">
-        <v>273542078763571821036542361600</v>
+        <v>36454493454234595285270528</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>2286.22223580762</v>
       </c>
       <c r="C19" t="n">
-        <v>-5237630017168237531027944243200</v>
+        <v>-414289649037983049867853824</v>
       </c>
       <c r="D19" t="n">
-        <v>-8010263866076472580524692471808</v>
+        <v>-633601341618373273493438464</v>
       </c>
       <c r="E19" t="n">
-        <v>5237630017168237531027944243200</v>
+        <v>414289649037983049867853824</v>
       </c>
       <c r="F19" t="n">
-        <v>8010263866076472580524692471808</v>
+        <v>633601341618373273493438464</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1731.59205546657</v>
       </c>
       <c r="C20" t="n">
-        <v>-156671193951742184735207805943808</v>
+        <v>-5315038974940394172400533504</v>
       </c>
       <c r="D20" t="n">
-        <v>-239607914200326028638009774047232</v>
+        <v>-8128650650809349108943290368</v>
       </c>
       <c r="E20" t="n">
-        <v>156671193951742184735207805943808</v>
+        <v>5315038974940394172400533504</v>
       </c>
       <c r="F20" t="n">
-        <v>239607914200326028638009774047232</v>
+        <v>8128650650809349108943290368</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1314.59098527572</v>
       </c>
       <c r="C21" t="n">
-        <v>-5595683214716779536163782900318208</v>
+        <v>-79912231260222033887559155712</v>
       </c>
       <c r="D21" t="n">
-        <v>-8557858977043642438888996586127360</v>
+        <v>-122215211159070707100694872064</v>
       </c>
       <c r="E21" t="n">
-        <v>5595683214716779536163782900318208</v>
+        <v>79912231260222033887559155712</v>
       </c>
       <c r="F21" t="n">
-        <v>8557858977043642438888996586127360</v>
+        <v>122215211159070707100694872064</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>5806.84840219171</v>
       </c>
       <c r="C22" t="n">
-        <v>-1112360592307131589310015809098088448</v>
+        <v>-6645535838769153517189010030592</v>
       </c>
       <c r="D22" t="n">
-        <v>-1701208720241499113276640677922340864</v>
+        <v>-10163470009435543601374583324672</v>
       </c>
       <c r="E22" t="n">
-        <v>1112360592307131589310015809098088448</v>
+        <v>6645535838769153517189010030592</v>
       </c>
       <c r="F22" t="n">
-        <v>1701208720241499113276640677922340864</v>
+        <v>10163470009435543601374583324672</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>4411.02543175916</v>
       </c>
       <c r="C23" t="n">
-        <v>-37284657937235575848874944968951595008</v>
+        <v>-69969039035324903890581037514752</v>
       </c>
       <c r="D23" t="n">
-        <v>-57021963608481859112407721732894359552</v>
+        <v>-107008410920895792945168123953152</v>
       </c>
       <c r="E23" t="n">
-        <v>37284657937235575848874944968951595008</v>
+        <v>69969039035324903890581037514752</v>
       </c>
       <c r="F23" t="n">
-        <v>57021963608481859112407721732894359552</v>
+        <v>107008410920895792945168123953152</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>4498.14521536902</v>
       </c>
       <c r="C24" t="n">
-        <v>-1528795115548476179581273396769019920384</v>
+        <v>-1614430235889037641662439194886144</v>
       </c>
       <c r="D24" t="n">
-        <v>-2338090363880471152077651886275026747392</v>
+        <v>-2469057978599843787776784984965120</v>
       </c>
       <c r="E24" t="n">
-        <v>1528795115548476179581273396769019920384</v>
+        <v>1614430235889037641662439194886144</v>
       </c>
       <c r="F24" t="n">
-        <v>2338090363880471152077651886275026747392</v>
+        <v>2469057978599843787776784984965120</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>3599.14258118479</v>
       </c>
       <c r="C25" t="n">
-        <v>-56974122175419863063096053162934366371840</v>
+        <v>-11935561814653728914145336237228032</v>
       </c>
       <c r="D25" t="n">
-        <v>-87134400610056050285311628449021188636672</v>
+        <v>-18253866579322358928052894172184576</v>
       </c>
       <c r="E25" t="n">
-        <v>56974122175419863063096053162934366371840</v>
+        <v>11935561814653728914145336237228032</v>
       </c>
       <c r="F25" t="n">
-        <v>87134400610056050285311628449021188636672</v>
+        <v>18253866579322358928052894172184576</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>2822.69434602914</v>
       </c>
       <c r="C26" t="n">
-        <v>-1848768072818587884543697634405709250560000</v>
+        <v>-218763066290915456050842715520237568</v>
       </c>
       <c r="D26" t="n">
-        <v>-2827446773046643860747726226671149344882688</v>
+        <v>-334569238262009339842291455810863104</v>
       </c>
       <c r="E26" t="n">
-        <v>1848768072818587884543697634405709250560000</v>
+        <v>218763066290915456050842715520237568</v>
       </c>
       <c r="F26" t="n">
-        <v>2827446773046643860747726226671149344882688</v>
+        <v>334569238262009339842291455810863104</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>2398.19592721379</v>
       </c>
       <c r="C27" t="n">
-        <v>-68505471997409389717785464035653203154436096</v>
+        <v>-2398345063491020010053276187091795968</v>
       </c>
       <c r="D27" t="n">
-        <v>-104770078293167793431592142071745229078134784</v>
+        <v>-3667952248916537716937365372467675136</v>
       </c>
       <c r="E27" t="n">
-        <v>68505471997409389717785464035653203154436096</v>
+        <v>2398345063491020010053276187091795968</v>
       </c>
       <c r="F27" t="n">
-        <v>104770078293167793431592142071745229078134784</v>
+        <v>3667952248916537716937365372467675136</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>3396.12341016205</v>
       </c>
       <c r="C28" t="n">
-        <v>-4126341463312132730735479426787154084249993216</v>
+        <v>-66216874609936288977255812086068412416</v>
       </c>
       <c r="D28" t="n">
-        <v>-6310694687161709419214008336350776867281698816</v>
+        <v>-101269970630583374617190169852801712128</v>
       </c>
       <c r="E28" t="n">
-        <v>4126341463312132730735479426787154084249993216</v>
+        <v>66216874609936288977255812086068412416</v>
       </c>
       <c r="F28" t="n">
-        <v>6310694687161709419214008336350776867281698816</v>
+        <v>101269970630583374617190169852801712128</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>3195.87482226716</v>
       </c>
       <c r="C29" t="n">
-        <v>-184860487345615184140039980920990871013285691392</v>
+        <v>-890118065232538901701690420018290884608</v>
       </c>
       <c r="D29" t="n">
-        <v>-282719718116031282693215659937463676291910729728</v>
+        <v>-1361318105918645386629856694986866688000</v>
       </c>
       <c r="E29" t="n">
-        <v>184860487345615184140039980920990871013285691392</v>
+        <v>890118065232538901701690420018290884608</v>
       </c>
       <c r="F29" t="n">
-        <v>282719718116031282693215659937463676291910729728</v>
+        <v>1361318105918645386629856694986866688000</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>2976.21901791012</v>
       </c>
       <c r="C30" t="n">
-        <v>-6992432608448013669769909569123098009907824164864</v>
+        <v>-12810899035773677312970811835441439834112</v>
       </c>
       <c r="D30" t="n">
-        <v>-10694002836364690059088292335679709542223324381184</v>
+        <v>-19592579334897988887688961266010774568960</v>
       </c>
       <c r="E30" t="n">
-        <v>6992432608448013669769909569123098009907824164864</v>
+        <v>12810899035773677312970811835441439834112</v>
       </c>
       <c r="F30" t="n">
-        <v>10694002836364690059088292335679709542223324381184</v>
+        <v>19592579334897988887688961266010774568960</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>2517.53858012429</v>
       </c>
       <c r="C31" t="n">
-        <v>-186613167169485875660514845917855292055183056437248</v>
+        <v>-238581109717414735084165245149175741415424</v>
       </c>
       <c r="D31" t="n">
-        <v>-285400210593723156727856483421649424988883380076544</v>
+        <v>-364878320162652979334412375506568651735040</v>
       </c>
       <c r="E31" t="n">
-        <v>186613167169485875660514845917855292055183056437248</v>
+        <v>238581109717414735084165245149175741415424</v>
       </c>
       <c r="F31" t="n">
-        <v>285400210593723156727856483421649424988883380076544</v>
+        <v>364878320162652979334412375506568651735040</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1906.25174662652</v>
       </c>
       <c r="C32" t="n">
-        <v>-5101278931063318459652761170295691243009988622286848</v>
+        <v>-2300666682044530055033247122277215951126528</v>
       </c>
       <c r="D32" t="n">
-        <v>-7801732875046863010307066824590210510184153429835776</v>
+        <v>-3518566055765636454857414788662982655082496</v>
       </c>
       <c r="E32" t="n">
-        <v>5101278931063318459652761170295691243009988622286848</v>
+        <v>2300666682044530055033247122277215951126528</v>
       </c>
       <c r="F32" t="n">
-        <v>7801732875046863010307066824590210510184153429835776</v>
+        <v>3518566055765636454857414788662982655082496</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1446.78346040678</v>
       </c>
       <c r="C33" t="n">
-        <v>-169979473340843665016951697822620550820354511060598784</v>
+        <v>-34334159725429791623769342490759669502443520</v>
       </c>
       <c r="D33" t="n">
-        <v>-259961171143015767291587015715374640417600672079282176</v>
+        <v>-52509565990574290969631553356400126930714624</v>
       </c>
       <c r="E33" t="n">
-        <v>169979473340843665016951697822620550820354511060598784</v>
+        <v>34334159725429791623769342490759669502443520</v>
       </c>
       <c r="F33" t="n">
-        <v>259961171143015767291587015715374640417600672079282176</v>
+        <v>52509565990574290969631553356400126930714624</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>6388.99879552824</v>
       </c>
       <c r="C34" t="n">
-        <v>-29619390326316309509288632259965276834565086476492603392</v>
+        <v>-2742773062607404500034745044335259799240310784</v>
       </c>
       <c r="D34" t="n">
-        <v>-45298948434387965351158702255315192619250607474476056576</v>
+        <v>-4194709417090597484421195282028468646921109504</v>
       </c>
       <c r="E34" t="n">
-        <v>29619390326316309509288632259965276834565086476492603392</v>
+        <v>2742773062607404500034745044335259799240310784</v>
       </c>
       <c r="F34" t="n">
-        <v>45298948434387965351158702255315192619250607474476056576</v>
+        <v>4194709417090597484421195282028468646921109504</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>4851.90748683137</v>
       </c>
       <c r="C35" t="n">
-        <v>-939747313109198729013985478012894451581617884635047395328</v>
+        <v>-32510735263306521324179295040134438441453617152</v>
       </c>
       <c r="D35" t="n">
-        <v>-1437219490641099204123468284734546764265017732072088797184</v>
+        <v>-49720878925319756823361799375501714109677699072</v>
       </c>
       <c r="E35" t="n">
-        <v>939747313109198729013985478012894451581617884635047395328</v>
+        <v>32510735263306521324179295040134438441453617152</v>
       </c>
       <c r="F35" t="n">
-        <v>1437219490641099204123468284734546764265017732072088797184</v>
+        <v>49720878925319756823361799375501714109677699072</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>4946.38862031827</v>
       </c>
       <c r="C36" t="n">
-        <v>-39499142665888582195197179057088923805598882304722567430144</v>
+        <v>-643127796915384118944598272982319267151043624960</v>
       </c>
       <c r="D36" t="n">
-        <v>-60408725740545898630001619662873309629011334464384071106560</v>
+        <v>-983579087490782991848786730752574440077095075840</v>
       </c>
       <c r="E36" t="n">
-        <v>39499142665888582195197179057088923805598882304722567430144</v>
+        <v>643127796915384118944598272982319267151043624960</v>
       </c>
       <c r="F36" t="n">
-        <v>60408725740545898630001619662873309629011334464384071106560</v>
+        <v>983579087490782991848786730752574440077095075840</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>3956.73341646542</v>
       </c>
       <c r="C37" t="n">
-        <v>-1345504753981230787175017723423647261003549210128041612673024</v>
+        <v>-6472604426790641873574725759957829474839622057984</v>
       </c>
       <c r="D37" t="n">
-        <v>-2057771945922420595685785375048474430501892519903781445435392</v>
+        <v>-9898994237733364834144304862005698125132380241920</v>
       </c>
       <c r="E37" t="n">
-        <v>1345504753981230787175017723423647261003549210128041612673024</v>
+        <v>6472604426790641873574725759957829474839622057984</v>
       </c>
       <c r="F37" t="n">
-        <v>2057771945922420595685785375048474430501892519903781445435392</v>
+        <v>9898994237733364834144304862005698125132380241920</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>3106.48271823715</v>
       </c>
       <c r="C38" t="n">
-        <v>-31921163783834771319108612750064535597097358879280811353309184</v>
+        <v>-85992458881955685937694098556310770081764808327168</v>
       </c>
       <c r="D38" t="n">
-        <v>-48819207157172392452139652181169405561832572897338323164463104</v>
+        <v>-131514116858069547087098963199782477979589250383872</v>
       </c>
       <c r="E38" t="n">
-        <v>31921163783834771319108612750064535597097358879280811353309184</v>
+        <v>85992458881955685937694098556310770081764808327168</v>
       </c>
       <c r="F38" t="n">
-        <v>48819207157172392452139652181169405561832572897338323164463104</v>
+        <v>131514116858069547087098963199782477979589250383872</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>2638.63635660498</v>
       </c>
       <c r="C39" t="n">
-        <v>-975095245788293291379353433540553463139064664472249812941537280</v>
+        <v>-1131563494042486004930953458055424472968729571885056</v>
       </c>
       <c r="D39" t="n">
-        <v>-1491279488569884010515901632301309251996483713503275680605929472</v>
+        <v>-1730577024109913714384681614233954874951364146888704</v>
       </c>
       <c r="E39" t="n">
-        <v>975095245788293291379353433540553463139064664472249812941537280</v>
+        <v>1131563494042486004930953458055424472968729571885056</v>
       </c>
       <c r="F39" t="n">
-        <v>1491279488569884010515901632301309251996483713503275680605929472</v>
+        <v>1730577024109913714384681614233954874951364146888704</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>3735.67608825273</v>
       </c>
       <c r="C40" t="n">
-        <v>-50805022542040781386084684431558263298938076456720855517053845504</v>
+        <v>-36892333764831271673373859839200171638263437145931776</v>
       </c>
       <c r="D40" t="n">
-        <v>-77699576898281304774117829017645916103403773593411399709831987200</v>
+        <v>-56421955564443338893284428939942375456406083507060736</v>
       </c>
       <c r="E40" t="n">
-        <v>50805022542040781386084684431558263298938076456720855517053845504</v>
+        <v>36892333764831271673373859839200171638263437145931776</v>
       </c>
       <c r="F40" t="n">
-        <v>77699576898281304774117829017645916103403773593411399709831987200</v>
+        <v>56421955564443338893284428939942375456406083507060736</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/Epidemic/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/Epidemic/Acute hemorrhagic conjunctivitis.xlsx
@@ -427,20 +427,12 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2315.44860639802</v>
-      </c>
-      <c r="C2" t="n">
-        <v>613.20468821775</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-287.908809905308</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4017.6925245783</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4918.80602270136</v>
-      </c>
+        <v>2831.80168417753</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -448,7 +440,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>176.448606398024</v>
+        <v>692.80168417753</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,20 +451,12 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1968.51288259218</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-61294.5057158628</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-94783.9248186313</v>
-      </c>
-      <c r="E3" t="n">
-        <v>65231.5314810472</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98720.9505838156</v>
-      </c>
+        <v>2814.15652118441</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -480,7 +464,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>296.512882592179</v>
+        <v>1142.15652118441</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,20 +475,12 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2789.43576433971</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-3915622.52170525</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-5989904.51406348</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3921201.39323393</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5995483.38559216</v>
-      </c>
+        <v>2846.50646190683</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -512,7 +488,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>778.435764339712</v>
+        <v>835.506461906833</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,20 +499,12 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2626.63062814211</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-134546563.528993</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-205772602.358947</v>
-      </c>
-      <c r="E5" t="n">
-        <v>134551816.79025</v>
-      </c>
-      <c r="F5" t="n">
-        <v>205777855.620203</v>
-      </c>
+        <v>2866.45942967975</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -544,7 +512,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>396.630628142113</v>
+        <v>636.45942967975</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,20 +523,12 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2447.64011214438</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-4177795104.51121</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-6389387536.39578</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4177799999.79144</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6389392431.67601</v>
-      </c>
+        <v>2876.83117077803</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -576,10 +536,10 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.3598878556172</v>
+        <v>408.831170778028</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,20 +547,12 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2071.71196126065</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-122957527658.219</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-188047312119.868</v>
-      </c>
-      <c r="E7" t="n">
-        <v>122957531801.643</v>
-      </c>
-      <c r="F7" t="n">
-        <v>188047316263.292</v>
-      </c>
+        <v>2874.5370525713</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -608,10 +560,10 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>-716.28803873935</v>
+        <v>86.5370525712988</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,20 +571,12 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1569.64426214283</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-3106473160113.81</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-4750940717114.95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3106473163253.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4750940720254.24</v>
-      </c>
+        <v>2711.92262286001</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -640,10 +584,10 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>-991.355737857171</v>
+        <v>150.922622860007</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,20 +595,12 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1192.03630764053</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-62063593498907.4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-94918075308276</v>
-      </c>
-      <c r="E9" t="n">
-        <v>62063593501291.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>94918075310660.1</v>
-      </c>
+        <v>2878.87926999922</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,10 +608,10 @@
         <v>2796</v>
       </c>
       <c r="I9" t="n">
-        <v>-1603.96369235947</v>
+        <v>82.8792699992164</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,20 +619,12 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>5267.21427808336</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-6609107468206843</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-10107757624359804</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6609107468217377</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10107757624370340</v>
-      </c>
+        <v>2868.88855873334</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,7 +632,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>2718.21427808336</v>
+        <v>319.888558733338</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,20 +643,12 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4002.39761874766</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-98731979517634976</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-150997532350311744</v>
-      </c>
-      <c r="E11" t="n">
-        <v>98731979517642976</v>
-      </c>
-      <c r="F11" t="n">
-        <v>150997532350319744</v>
-      </c>
+        <v>2858.89814490161</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,7 +656,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1704.39761874766</v>
+        <v>560.898144901611</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,20 +667,12 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4082.75052707486</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-2037720854401925120</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-3116425115111739904</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2037720854401933312</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3116425115111748096</v>
-      </c>
+        <v>2860.35985862411</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +680,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1544.75052707486</v>
+        <v>322.359858624112</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,20 +691,12 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3267.80158302128</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-24313035400925696000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-37183578891272716288</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24313035400925704192</v>
-      </c>
-      <c r="F13" t="n">
-        <v>37183578891272716288</v>
-      </c>
+        <v>2854.59601634901</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -800,7 +704,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>684.801583021276</v>
+        <v>271.596016349014</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,20 +715,12 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2559.59852303117</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-355813210207156436992</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-544169345954683486208</v>
-      </c>
-      <c r="E14" t="n">
-        <v>355813210207156436992</v>
-      </c>
-      <c r="F14" t="n">
-        <v>544169345954683486208</v>
-      </c>
+        <v>2845.79247207701</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -832,7 +728,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>254.598523031166</v>
+        <v>540.792472077009</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,20 +739,12 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2175.31497160895</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-5274122203345191960576</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-8066073848715419844608</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5274122203345191960576</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8066073848715419844608</v>
-      </c>
+        <v>2845.10824240482</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -864,7 +752,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>302.314971608949</v>
+        <v>972.108242404825</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,20 +763,12 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3081.40730150504</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-111972887839288068145152</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-171247754136748990398464</v>
-      </c>
-      <c r="E16" t="n">
-        <v>111972887839288068145152</v>
-      </c>
-      <c r="F16" t="n">
-        <v>171247754136748990398464</v>
-      </c>
+        <v>2846.53642573222</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -896,10 +776,10 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>196.407301505036</v>
+        <v>-38.4635742677847</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,20 +787,12 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2900.562624031</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-1558041716430953328410624</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-2382819180060032012124160</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1558041716430953328410624</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2382819180060032012124160</v>
-      </c>
+        <v>2847.38750244669</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -928,7 +800,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>92.5626240310039</v>
+        <v>39.3875024466861</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,20 +811,12 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2701.98492947749</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-23836312057730573206028288</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-36454493454234595285270528</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23836312057730573206028288</v>
-      </c>
-      <c r="F18" t="n">
-        <v>36454493454234595285270528</v>
-      </c>
+        <v>2847.82436087899</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,7 +824,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>153.984929477493</v>
+        <v>299.824360878994</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,20 +835,12 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2286.22223580762</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-414289649037983049867853824</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-633601341618373273493438464</v>
-      </c>
-      <c r="E19" t="n">
-        <v>414289649037983049867853824</v>
-      </c>
-      <c r="F19" t="n">
-        <v>633601341618373273493438464</v>
-      </c>
+        <v>2847.72086143552</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,10 +848,10 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>-180.777764192379</v>
+        <v>380.720861435518</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1003,20 +859,12 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1731.59205546657</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-5315038974940394172400533504</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-8128650650809349108943290368</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5315038974940394172400533504</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8128650650809349108943290368</v>
-      </c>
+        <v>2840.51228489639</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,10 +872,10 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>-834.407944533425</v>
+        <v>274.51228489639</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1035,20 +883,12 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1314.59098527572</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-79912231260222033887559155712</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-122215211159070707100694872064</v>
-      </c>
-      <c r="E21" t="n">
-        <v>79912231260222033887559155712</v>
-      </c>
-      <c r="F21" t="n">
-        <v>122215211159070707100694872064</v>
-      </c>
+        <v>2847.98824077895</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +896,10 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>-701.409014724281</v>
+        <v>831.98824077895</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1067,20 +907,12 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>5806.84840219171</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-6645535838769153517189010030592</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-10163470009435543601374583324672</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6645535838769153517189010030592</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10163470009435543601374583324672</v>
-      </c>
+        <v>2847.47660441949</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +920,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3485.84840219171</v>
+        <v>526.476604419486</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,20 +931,12 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4411.02543175916</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-69969039035324903890581037514752</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-107008410920895792945168123953152</v>
-      </c>
-      <c r="E23" t="n">
-        <v>69969039035324903890581037514752</v>
-      </c>
-      <c r="F23" t="n">
-        <v>107008410920895792945168123953152</v>
-      </c>
+        <v>2847.04987991519</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +944,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2417.02543175916</v>
+        <v>853.049879915193</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,20 +955,12 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>4498.14521536902</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1614430235889037641662439194886144</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-2469057978599843787776784984965120</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1614430235889037641662439194886144</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2469057978599843787776784984965120</v>
-      </c>
+        <v>2847.11788810229</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +968,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>2280.14521536902</v>
+        <v>629.11788810229</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,20 +979,12 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3599.14258118479</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-11935561814653728914145336237228032</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-18253866579322358928052894172184576</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11935561814653728914145336237228032</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18253866579322358928052894172184576</v>
-      </c>
+        <v>2846.86698024961</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +992,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>1086.14258118479</v>
+        <v>333.86698024961</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,20 +1003,12 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2822.69434602914</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-218763066290915456050842715520237568</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-334569238262009339842291455810863104</v>
-      </c>
-      <c r="E26" t="n">
-        <v>218763066290915456050842715520237568</v>
-      </c>
-      <c r="F26" t="n">
-        <v>334569238262009339842291455810863104</v>
-      </c>
+        <v>2846.48632245618</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1016,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1011.69434602914</v>
+        <v>1035.48632245618</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,20 +1027,12 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2398.19592721379</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-2398345063491020010053276187091795968</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-3667952248916537716937365372467675136</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2398345063491020010053276187091795968</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3667952248916537716937365372467675136</v>
-      </c>
+        <v>2846.46055718554</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1040,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>837.195927213789</v>
+        <v>1285.46055718554</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,20 +1051,12 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3396.12341016205</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-66216874609936288977255812086068412416</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-101269970630583374617190169852801712128</v>
-      </c>
-      <c r="E28" t="n">
-        <v>66216874609936288977255812086068412416</v>
-      </c>
-      <c r="F28" t="n">
-        <v>101269970630583374617190169852801712128</v>
-      </c>
+        <v>2846.52315223997</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1064,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>837.123410162046</v>
+        <v>287.523152239965</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,20 +1075,12 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3195.87482226716</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-890118065232538901701690420018290884608</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-1361318105918645386629856694986866688000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>890118065232538901701690420018290884608</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1361318105918645386629856694986866688000</v>
-      </c>
+        <v>2846.55959558996</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1088,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>740.874822267159</v>
+        <v>391.559595589955</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,20 +1099,12 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2976.21901791012</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-12810899035773677312970811835441439834112</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-19592579334897988887688961266010774568960</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12810899035773677312970811835441439834112</v>
-      </c>
-      <c r="F30" t="n">
-        <v>19592579334897988887688961266010774568960</v>
-      </c>
+        <v>2846.57824986467</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1112,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>467.219017910119</v>
+        <v>337.578249864674</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,20 +1123,12 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2517.53858012429</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-238581109717414735084165245149175741415424</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-364878320162652979334412375506568651735040</v>
-      </c>
-      <c r="E31" t="n">
-        <v>238581109717414735084165245149175741415424</v>
-      </c>
-      <c r="F31" t="n">
-        <v>364878320162652979334412375506568651735040</v>
-      </c>
+        <v>2846.57353663912</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1136,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>-387.461419875709</v>
+        <v>-58.4264633608818</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,20 +1147,12 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1906.25174662652</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-2300666682044530055033247122277215951126528</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-3518566055765636454857414788662982655082496</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2300666682044530055033247122277215951126528</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3518566055765636454857414788662982655082496</v>
-      </c>
+        <v>2846.25882124014</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,10 +1160,10 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>-722.74825337348</v>
+        <v>217.258821240139</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,20 +1171,12 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1446.78346040678</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-34334159725429791623769342490759669502443520</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-52509565990574290969631553356400126930714624</v>
-      </c>
-      <c r="E33" t="n">
-        <v>34334159725429791623769342490759669502443520</v>
-      </c>
-      <c r="F33" t="n">
-        <v>52509565990574290969631553356400126930714624</v>
-      </c>
+        <v>2846.58863660708</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,10 +1184,10 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>-820.216539593221</v>
+        <v>579.588636607084</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,20 +1195,12 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6388.99879552824</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-2742773062607404500034745044335259799240310784</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-4194709417090597484421195282028468646921109504</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2742773062607404500034745044335259799240310784</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4194709417090597484421195282028468646921109504</v>
-      </c>
+        <v>2846.56277520581</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1208,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4115.99879552824</v>
+        <v>573.562775205806</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,20 +1219,12 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4851.90748683137</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-32510735263306521324179295040134438441453617152</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-49720878925319756823361799375501714109677699072</v>
-      </c>
-      <c r="E35" t="n">
-        <v>32510735263306521324179295040134438441453617152</v>
-      </c>
-      <c r="F35" t="n">
-        <v>49720878925319756823361799375501714109677699072</v>
-      </c>
+        <v>2846.54444598319</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1232,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2842.90748683137</v>
+        <v>837.544445983188</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,20 +1243,12 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4946.38862031827</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-643127796915384118944598272982319267151043624960</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-983579087490782991848786730752574440077095075840</v>
-      </c>
-      <c r="E36" t="n">
-        <v>643127796915384118944598272982319267151043624960</v>
-      </c>
-      <c r="F36" t="n">
-        <v>983579087490782991848786730752574440077095075840</v>
-      </c>
+        <v>2846.54760922402</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1256,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>3208.38862031827</v>
+        <v>1108.54760922402</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,20 +1267,12 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3956.73341646542</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-6472604426790641873574725759957829474839622057984</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-9898994237733364834144304862005698125132380241920</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6472604426790641873574725759957829474839622057984</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9898994237733364834144304862005698125132380241920</v>
-      </c>
+        <v>2846.53663268571</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1280,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>2387.73341646542</v>
+        <v>1277.53663268571</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,20 +1291,12 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3106.48271823715</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-85992458881955685937694098556310770081764808327168</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-131514116858069547087098963199782477979589250383872</v>
-      </c>
-      <c r="E38" t="n">
-        <v>85992458881955685937694098556310770081764808327168</v>
-      </c>
-      <c r="F38" t="n">
-        <v>131514116858069547087098963199782477979589250383872</v>
-      </c>
+        <v>2846.52014752522</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1304,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1950.48271823715</v>
+        <v>1690.52014752522</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,20 +1315,12 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2638.63635660498</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-1131563494042486004930953458055424472968729571885056</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-1730577024109913714384681614233954874951364146888704</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1131563494042486004930953458055424472968729571885056</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1730577024109913714384681614233954874951364146888704</v>
-      </c>
+        <v>2846.51920109805</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1328,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>680.63635660498</v>
+        <v>888.519201098046</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,20 +1339,12 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3735.67608825273</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-36892333764831271673373859839200171638263437145931776</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-56421955564443338893284428939942375456406083507060736</v>
-      </c>
-      <c r="E40" t="n">
-        <v>36892333764831271673373859839200171638263437145931776</v>
-      </c>
-      <c r="F40" t="n">
-        <v>56421955564443338893284428939942375456406083507060736</v>
-      </c>
+        <v>2846.52194176137</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1352,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1527.67608825273</v>
+        <v>638.521941761366</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
